--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saiem 70\Desktop\Summer 2021 projects\DIFA\R_codes\hello_world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF0BC76-FC7B-4CE0-A8C3-AF7570D987AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9020C4-779F-43FA-8415-90AEDC977A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Session</t>
   </si>
   <si>
-    <t>Short Description</t>
-  </si>
-  <si>
     <t>Speaker(s)</t>
   </si>
   <si>
@@ -57,27 +54,18 @@
     <t>Why should we care about data linkages?</t>
   </si>
   <si>
-    <t>Tim Beatty</t>
-  </si>
-  <si>
     <t>Keynote speaker</t>
   </si>
   <si>
     <t>Methods for linking administrative data</t>
   </si>
   <si>
-    <t>Julia Lane</t>
-  </si>
-  <si>
     <t>Q&amp;A Session</t>
   </si>
   <si>
     <t>Q&amp;A: Methods for linking administrative data</t>
   </si>
   <si>
-    <t>Jason Owen-Smith</t>
-  </si>
-  <si>
     <t>Session 2</t>
   </si>
   <si>
@@ -93,9 +81,6 @@
     <t>Developments in data linkages</t>
   </si>
   <si>
-    <t>Andi Carlson</t>
-  </si>
-  <si>
     <t>Session 4 (Research Presentations)</t>
   </si>
   <si>
@@ -108,15 +93,6 @@
     <t>What did we learn; share comments in exit survey; networking</t>
   </si>
   <si>
-    <t>Lauren Chenarides, Drew Hanks</t>
-  </si>
-  <si>
-    <t>Julia Lane, Jason Owen-Smith</t>
-  </si>
-  <si>
-    <t>Ayaz Hyder, Charlotte Ambrozek</t>
-  </si>
-  <si>
     <t>12:30pm</t>
   </si>
   <si>
@@ -157,6 +133,30 @@
   </si>
   <si>
     <t>60 minutes</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://wpcarey.asu.edu/people/profile/3153292), [Drew Hanks](https://ehe.osu.edu/human-sciences/directory?id=hanks.46)</t>
+  </si>
+  <si>
+    <t>[Tim Beatty](https://are.ucdavis.edu/people/faculty/tim-beatty/)</t>
+  </si>
+  <si>
+    <t>[Julia Lane](https://wagner.nyu.edu/community/faculty/julia-lane)</t>
+  </si>
+  <si>
+    <t>[Julia Lane](https://wagner.nyu.edu/community/faculty/julia-lane), [Jason Owen-Smith](https://lsa.umich.edu/soc/people/faculty/jdos.html)</t>
+  </si>
+  <si>
+    <t>[Jason Owen-Smith](https://lsa.umich.edu/soc/people/faculty/jdos.html)</t>
+  </si>
+  <si>
+    <t>[Andi Carlson](https://www.ers.usda.gov/authors/ers-staff-directory/andrea-carlson/)</t>
+  </si>
+  <si>
+    <t>[Ayaz Hyder](https://cph.osu.edu/people/ahyder), [Charlotte Ambrozek](https://are.ucdavis.edu/people/grad-students/phd/charlotte-ambrozek/)</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,196 +505,196 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saiem 70\Desktop\Summer 2021 projects\DIFA\R_codes\hello_world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9020C4-779F-43FA-8415-90AEDC977A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1C7890-3BB0-4663-B0A7-12E9C56E0B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Day 1 Opening Remarks</t>
   </si>
   <si>
-    <t>Greetings from the FAMPS and FSN Chairs; entry survey</t>
-  </si>
-  <si>
     <t>Session 1</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Day 1 Wrap-up</t>
   </si>
   <si>
-    <t>What did we learn; share comments in exit survey; networking</t>
-  </si>
-  <si>
     <t>12:30pm</t>
   </si>
   <si>
@@ -157,6 +151,12 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Greetings from the FAMPS and FSN Chairs</t>
+  </si>
+  <si>
+    <t>Closing from the FAMPS and FSN Chairs; Preview of Day 2</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,13 +505,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -522,179 +522,179 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
